--- a/Team_Tasks.xlsx
+++ b/Team_Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Prototype\Robotic_Car_TeamC1-HSHL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041949A7-E782-493D-9A63-81E84D3212D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAD47AB-960E-4950-817A-EC650C0BC495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="0" windowWidth="15090" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="100" windowWidth="22000" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Milestone</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dev Rahman </t>
+  </si>
+  <si>
+    <t>IR HOLDER</t>
   </si>
 </sst>
 </file>
@@ -439,13 +442,13 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -508,7 +511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -546,6 +549,17 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">

--- a/Team_Tasks.xlsx
+++ b/Team_Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Prototype\Robotic_Car_TeamC1-HSHL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4837381-2C4D-4EBA-8388-B74F5B7C2EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E54EB2-4E64-4787-8293-1DD92D76ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="100" windowWidth="22000" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Milestone</t>
   </si>
@@ -42,33 +42,12 @@
     <t>Done date</t>
   </si>
   <si>
-    <t>To do mark</t>
-  </si>
-  <si>
-    <t>Done mark</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Motot Holder</t>
-  </si>
-  <si>
-    <t>ABDO</t>
-  </si>
-  <si>
     <t>Rahman</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>SysML Diagrams</t>
   </si>
   <si>
@@ -88,32 +67,41 @@
   </si>
   <si>
     <t>Abdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lip &amp;BB holder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designs  </t>
-  </si>
-  <si>
-    <t>Motor Holder</t>
   </si>
   <si>
     <t xml:space="preserve"> Focus on requirements, including Requirements Diagrams, Use Case,stateMachine 
 Diagrams, </t>
   </si>
   <si>
-    <t xml:space="preserve">Dev Rahman </t>
-  </si>
-  <si>
-    <t>flexable IR HOLDER</t>
+    <t>Motot Holder(both_sides)</t>
+  </si>
+  <si>
+    <t>Solidworks</t>
+  </si>
+  <si>
+    <t>Develop IR holder</t>
+  </si>
+  <si>
+    <t>BB&amp;B Holder</t>
+  </si>
+  <si>
+    <t>IR holder</t>
+  </si>
+  <si>
+    <t>Servo-Motor&amp; Holder</t>
+  </si>
+  <si>
+    <t>Calculation printing time</t>
+  </si>
+  <si>
+    <t>Creality print</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +117,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,18 +162,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,144 +483,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.08984375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45763</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45761</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45763</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45761</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4">
+        <v>45763</v>
+      </c>
+      <c r="M3" s="4">
+        <v>45761</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="O3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="4">
+        <v>45771</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45763</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45761</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45763</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45761</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="L4" s="4">
+        <v>45771</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
         <v>45763</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E5" s="4">
         <v>45761</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45763</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45761</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45763</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D7" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://www.youtube.com/watch?v=O3tLo1Gqhhw&amp;t=419s" xr:uid="{07569895-666D-413F-A5F9-FC83BA236112}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://www.youtube.com/watch?v=O3tLo1Gqhhw&amp;t=419s" xr:uid="{07569895-666D-413F-A5F9-FC83BA236112}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Team_Tasks.xlsx
+++ b/Team_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Prototype\Robotic_Car_TeamC1-HSHL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E54EB2-4E64-4787-8293-1DD92D76ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2A6D5-107D-4CAC-ABAC-ED04A73ADD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,13 +128,12 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +148,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,29 +194,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,65 +659,65 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.08984375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.08984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -553,10 +726,10 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -565,10 +738,10 @@
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -577,10 +750,10 @@
       <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -589,143 +762,154 @@
       <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="21">
         <v>45763</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="21">
         <v>45761</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="21">
         <v>45763</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="21">
         <v>45761</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="21">
         <v>45763</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="21">
         <v>45761</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="21">
         <v>45771</v>
       </c>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="21">
         <v>45763</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="21">
         <v>45761</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="21">
         <v>45763</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="21">
         <v>45761</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21">
         <v>45771</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="4">
+      <c r="O4" s="20"/>
+      <c r="P4" s="21">
         <v>45771</v>
       </c>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="21">
         <v>45763</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="21">
         <v>45761</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="21">
         <v>45763</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="21">
         <v>45761</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Team_Tasks.xlsx
+++ b/Team_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Prototype\Robotic_Car_TeamC1-HSHL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2A6D5-107D-4CAC-ABAC-ED04A73ADD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E8E29-28C2-4A2F-8E6A-E10AB1EF3162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +132,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +177,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -300,11 +312,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,46 +328,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,8 +352,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -659,7 +676,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,39 +702,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -726,10 +743,10 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -738,10 +755,10 @@
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -750,10 +767,10 @@
       <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -762,142 +779,142 @@
       <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="9">
         <v>45763</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="24">
         <v>45761</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="9">
         <v>45763</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="24">
         <v>45761</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="9">
         <v>45763</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="24">
         <v>45761</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="9">
         <v>45771</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="9">
         <v>45763</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="24">
         <v>45761</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="9">
         <v>45763</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="24">
         <v>45761</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21">
+      <c r="K4" s="8"/>
+      <c r="L4" s="9">
         <v>45771</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21">
+      <c r="O4" s="8"/>
+      <c r="P4" s="9">
         <v>45771</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="9">
         <v>45763</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="24">
         <v>45761</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="9">
         <v>45763</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="24">
         <v>45761</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D6" s="3"/>

--- a/Team_Tasks.xlsx
+++ b/Team_Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Prototype\Robotic_Car_TeamC1-HSHL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E8E29-28C2-4A2F-8E6A-E10AB1EF3162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B389B3-6C67-415A-9544-1F2B382A33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Milestone</t>
   </si>
@@ -91,17 +91,41 @@
     <t>Servo-Motor&amp; Holder</t>
   </si>
   <si>
-    <t>Calculation printing time</t>
-  </si>
-  <si>
     <t>Creality print</t>
+  </si>
+  <si>
+    <t>Edit Diagrams related</t>
+  </si>
+  <si>
+    <t>Fast Voltage handling</t>
+  </si>
+  <si>
+    <t>Button design</t>
+  </si>
+  <si>
+    <t>UPPAAL</t>
+  </si>
+  <si>
+    <t>Soldering</t>
+  </si>
+  <si>
+    <t>Coding (Lane-Follow)</t>
+  </si>
+  <si>
+    <t>latex Doc_Writing</t>
+  </si>
+  <si>
+    <t>Coding (Colors)</t>
+  </si>
+  <si>
+    <t>ColorSensor holder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +150,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +213,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -311,13 +347,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,49 +402,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -676,18 +739,18 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -701,34 +764,34 @@
     <col min="18" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -796,7 +859,7 @@
       <c r="D3" s="9">
         <v>45763</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="12">
         <v>45761</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -808,7 +871,7 @@
       <c r="H3" s="9">
         <v>45763</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="12">
         <v>45761</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -820,7 +883,7 @@
       <c r="L3" s="9">
         <v>45763</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="14">
         <v>45761</v>
       </c>
       <c r="N3" s="8" t="s">
@@ -832,7 +895,9 @@
       <c r="P3" s="9">
         <v>45771</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="12">
+        <v>45771</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
@@ -847,7 +912,7 @@
       <c r="D4" s="9">
         <v>45763</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="12">
         <v>45761</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -859,7 +924,7 @@
       <c r="H4" s="9">
         <v>45763</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="12">
         <v>45761</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -869,7 +934,9 @@
       <c r="L4" s="9">
         <v>45771</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="14">
+        <v>45771</v>
+      </c>
       <c r="N4" s="8" t="s">
         <v>9</v>
       </c>
@@ -877,7 +944,9 @@
       <c r="P4" s="9">
         <v>45771</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="12">
+        <v>45771</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -892,41 +961,107 @@
       <c r="D5" s="9">
         <v>45763</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="12">
         <v>45761</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="9">
         <v>45763</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="12">
         <v>45761</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="J5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="15">
+        <v>45812</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
+      <c r="P5" s="9">
+        <v>45812</v>
+      </c>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9">
+        <v>45798</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45798</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>45798</v>
+      </c>
+      <c r="I6" s="12">
+        <v>45798</v>
+      </c>
       <c r="L6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="N6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D7" s="3"/>
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9">
+        <v>45805</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45805</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>45812</v>
+      </c>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D8" s="3"/>
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
+        <v>45812</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45809</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
